--- a/IBP_Dnata_Admin/src/test/resources/TestData/TestData.xlsx
+++ b/IBP_Dnata_Admin/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Wrongusr" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Validusrpwd" sheetId="9" r:id="rId3"/>
     <sheet name="BranchCompanyDetails" sheetId="7" r:id="rId4"/>
     <sheet name="B2BCompanyDetails" sheetId="10" r:id="rId5"/>
+    <sheet name="CompUserCreation" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Username</t>
   </si>
@@ -135,13 +136,52 @@
   </si>
   <si>
     <t>B2B</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Sample@123</t>
+  </si>
+  <si>
+    <t>Office Phone</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>AUTOMATION</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>dnataTestRole</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>ADMIN,B2B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +203,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,7 +250,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -217,6 +263,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -938,4 +987,86 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/IBP_Dnata_Admin/src/test/resources/TestData/TestData.xlsx
+++ b/IBP_Dnata_Admin/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Wrongusr" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="BranchCompanyDetails" sheetId="7" r:id="rId4"/>
     <sheet name="B2BCompanyDetails" sheetId="10" r:id="rId5"/>
     <sheet name="CompUserCreation" sheetId="12" r:id="rId6"/>
+    <sheet name="CompCustomerCreation" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>Username</t>
   </si>
@@ -84,15 +85,9 @@
     <t>Back Office Provider</t>
   </si>
   <si>
-    <t>CONVERGENT</t>
-  </si>
-  <si>
     <t>Channel Name</t>
   </si>
   <si>
-    <t>Dnata Hertz</t>
-  </si>
-  <si>
     <t>Staff Email</t>
   </si>
   <si>
@@ -156,25 +151,103 @@
     <t>123456789</t>
   </si>
   <si>
-    <t>AUTOMATION</t>
-  </si>
-  <si>
     <t>TESTING</t>
   </si>
   <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>dnataTestRole</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
     <t>Module</t>
   </si>
   <si>
-    <t>ADMIN,B2B</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>01-01-2000</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>PED</t>
+  </si>
+  <si>
+    <t>01-01-2030</t>
+  </si>
+  <si>
+    <t>01-01-2020</t>
+  </si>
+  <si>
+    <t>Sample City</t>
+  </si>
+  <si>
+    <t>Phone Code</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>Passport No</t>
+  </si>
+  <si>
+    <t>Passport Issued</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>AUTOMATIONUSER</t>
+  </si>
+  <si>
+    <t>AUTOMATIONCUSTOMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONVERGENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dnata Hertz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MULTI ROLE 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indian </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IN - 91 </t>
+  </si>
+  <si>
+    <t>Supplier Config</t>
+  </si>
+  <si>
+    <t>CLUBMED SIT</t>
+  </si>
+  <si>
+    <t>FOP Type</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>FOP Default</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -250,7 +323,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -266,6 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,10 +776,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -722,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -767,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>15</v>
@@ -776,39 +850,39 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -829,19 +903,19 @@
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -857,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -903,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>15</v>
@@ -912,39 +986,39 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -965,19 +1039,19 @@
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -993,14 +1067,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1011,13 +1085,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1026,39 +1100,39 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1069,4 +1143,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/IBP_Dnata_Admin/src/test/resources/TestData/TestData.xlsx
+++ b/IBP_Dnata_Admin/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Wrongusr" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="B2BCompanyDetails" sheetId="10" r:id="rId5"/>
     <sheet name="CompUserCreation" sheetId="12" r:id="rId6"/>
     <sheet name="CompCustomerCreation" sheetId="13" r:id="rId7"/>
+    <sheet name="CarRentalRule" sheetId="14" r:id="rId8"/>
+    <sheet name="CarRentalRuleEdit" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>Username</t>
   </si>
@@ -248,6 +250,39 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>AUTOMATIONRULE</t>
+  </si>
+  <si>
+    <t>Booking Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PER BOOKING </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALL </t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PER BOOKING + PAX </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HERTZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canada </t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -1283,4 +1318,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>